--- a/data/trans_dic/P3A_R1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R1-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,18%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>2,99; 7,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>4,3; 8,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>3,05; 7,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>3,36; 12,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>3,75; 8,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>5,65; 10,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>7,89; 14,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>5,04; 12,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,86; 6,87</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>5,54; 8,98</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>6,02; 9,73</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>4,93; 10,58</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,98%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,33%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,91%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,24%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>25,25; 32,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>24,92; 31,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>33,24; 41,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>23,41; 35,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>20,62; 27,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>23,76; 31,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>22,82; 30,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>14,29; 27,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>24,05; 28,78</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>25,02; 29,95</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>29,14; 34,87</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>19,8; 29,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,75%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,63%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,68%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,17%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,46%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,47%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,32%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,99%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,08%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>26,13; 33,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>39,22; 47,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>42,75; 50,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>39,45; 48,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>12,45; 17,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>18,48; 24,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>29,68; 36,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>25,57; 39,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>20,02; 24,59</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>29,77; 34,79</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>37,16; 42,77</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>33,91; 42,19</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,96%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,78%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,01%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>17,47; 24,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>29,21; 37,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>34,26; 42,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>10,38; 34,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>5,39; 10,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>10,33; 16,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>16,56; 22,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>24,23; 31,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>11,81; 16,39</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>20,31; 25,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>25,96; 31,27</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>14,85; 31,76</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,37%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,68%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,55%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,79%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,25%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,24%</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>10,46; 17,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>22,2; 30,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>29,22; 38,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>27,96; 35,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>5,73; 10,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>8,45; 15,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>10,05; 16,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>18,14; 23,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>8,62; 13,14</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>16,13; 21,86</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>20,62; 26,34</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>24,09; 28,59</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,37%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,88%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,29%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,64%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>19,57; 29,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>18,09; 27,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>23,09; 33,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>23,6; 31,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>8,49; 15,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>5,8; 12,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>7,15; 13,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>2,94; 13,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>14,61; 20,49</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>12,3; 18,08</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>15,79; 21,49</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>8,91; 20,53</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,2%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,76%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,25%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>11,64; 22,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>9,26; 18,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>14,26; 22,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>15,82; 23,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,43; 7,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,13; 7,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,14; 7,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>4,22; 7,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>6,51; 11,46</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>6,23; 10,62</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>7,34; 12,22</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>9,52; 13,3</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>20,91%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>27,46%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>32,41%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>26,95%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>11,99%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>14,85%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>18,57%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>19,81%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>16,39%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>21,04%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>25,33%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>23,26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>19,52; 22,43</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>25,79; 29,14</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>30,9; 34,2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>21,0; 29,72</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>10,89; 13,16</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>13,77; 16,28</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>17,19; 19,88</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>16,17; 21,64</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>15,46; 17,27</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>20,1; 22,11</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>24,29; 26,38</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>19,85; 25,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P3A_R1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R1-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,99; 7,17</t>
+          <t>3,02; 7,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,3; 8,83</t>
+          <t>4,27; 9,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 7,21</t>
+          <t>3,08; 7,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 12,17</t>
+          <t>3,47; 11,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,75; 8,02</t>
+          <t>3,75; 7,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,65; 10,93</t>
+          <t>5,69; 10,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,89; 14,02</t>
+          <t>7,94; 14,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,04; 12,86</t>
+          <t>5,17; 13,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,86; 6,87</t>
+          <t>3,75; 6,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,54; 8,98</t>
+          <t>5,58; 9,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,02; 9,73</t>
+          <t>6,03; 9,84</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 10,58</t>
+          <t>4,65; 10,39</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,25; 32,09</t>
+          <t>24,74; 31,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,92; 31,93</t>
+          <t>24,97; 31,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,24; 41,42</t>
+          <t>33,18; 41,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,41; 35,36</t>
+          <t>23,45; 35,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,62; 27,43</t>
+          <t>20,45; 27,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,76; 31,31</t>
+          <t>23,48; 30,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,82; 30,01</t>
+          <t>22,71; 29,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,29; 27,16</t>
+          <t>14,17; 27,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,05; 28,78</t>
+          <t>23,82; 28,59</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,02; 29,95</t>
+          <t>25,1; 30,29</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>29,14; 34,87</t>
+          <t>29,48; 34,87</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,8; 29,1</t>
+          <t>19,34; 29,45</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,13; 33,5</t>
+          <t>26,5; 33,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,22; 47,32</t>
+          <t>39,82; 47,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>42,75; 50,81</t>
+          <t>42,94; 50,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>39,45; 48,71</t>
+          <t>39,97; 48,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,45; 17,84</t>
+          <t>12,45; 18,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,48; 24,89</t>
+          <t>18,5; 24,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,68; 36,89</t>
+          <t>29,59; 36,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,57; 39,29</t>
+          <t>25,6; 38,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,02; 24,59</t>
+          <t>19,95; 24,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>29,77; 34,79</t>
+          <t>29,86; 34,94</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>37,16; 42,77</t>
+          <t>37,42; 42,85</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>33,91; 42,19</t>
+          <t>33,54; 42,33</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,47; 24,98</t>
+          <t>17,14; 24,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,21; 37,24</t>
+          <t>29,69; 37,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,26; 42,01</t>
+          <t>34,3; 41,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,38; 34,22</t>
+          <t>11,02; 34,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,39; 10,23</t>
+          <t>5,35; 9,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,33; 16,19</t>
+          <t>9,9; 15,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,56; 22,84</t>
+          <t>16,36; 22,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,23; 31,26</t>
+          <t>24,1; 31,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,81; 16,39</t>
+          <t>11,84; 16,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,31; 25,58</t>
+          <t>20,68; 25,93</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,96; 31,27</t>
+          <t>26,39; 31,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,85; 31,76</t>
+          <t>15,68; 31,72</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,46; 17,56</t>
+          <t>10,01; 17,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,2; 30,96</t>
+          <t>22,21; 31,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,22; 38,44</t>
+          <t>29,33; 38,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27,96; 35,03</t>
+          <t>27,84; 35,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,73; 10,9</t>
+          <t>5,79; 11,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,45; 15,09</t>
+          <t>8,45; 15,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,05; 16,61</t>
+          <t>10,25; 16,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,14; 23,52</t>
+          <t>18,42; 23,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,62; 13,14</t>
+          <t>8,71; 13,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,13; 21,86</t>
+          <t>16,01; 21,4</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20,62; 26,34</t>
+          <t>20,43; 26,2</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>24,09; 28,59</t>
+          <t>23,72; 28,49</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,57; 29,74</t>
+          <t>18,83; 28,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,09; 27,55</t>
+          <t>17,72; 27,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>23,09; 33,37</t>
+          <t>23,03; 32,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,6; 31,42</t>
+          <t>23,92; 31,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,49; 15,33</t>
+          <t>8,9; 15,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,8; 12,14</t>
+          <t>5,67; 12,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,15; 13,49</t>
+          <t>7,62; 14,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,94; 13,7</t>
+          <t>3,71; 13,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,61; 20,49</t>
+          <t>14,67; 20,67</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>12,3; 18,08</t>
+          <t>12,25; 18,24</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,79; 21,49</t>
+          <t>15,56; 21,39</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,91; 20,53</t>
+          <t>7,7; 20,65</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,64; 22,19</t>
+          <t>11,74; 21,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,26; 18,41</t>
+          <t>9,39; 18,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,26; 22,75</t>
+          <t>14,24; 22,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,82; 23,69</t>
+          <t>16,03; 23,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,43; 7,24</t>
+          <t>2,64; 7,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,13; 7,99</t>
+          <t>2,93; 7,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,14; 7,18</t>
+          <t>2,11; 7,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,22; 7,25</t>
+          <t>4,21; 7,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,51; 11,46</t>
+          <t>6,73; 11,58</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6,23; 10,62</t>
+          <t>6,26; 10,83</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,34; 12,22</t>
+          <t>7,6; 12,27</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,52; 13,3</t>
+          <t>9,56; 13,32</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>19,52; 22,43</t>
+          <t>19,39; 22,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>25,79; 29,14</t>
+          <t>25,89; 29,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>30,9; 34,2</t>
+          <t>30,85; 34,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>21,0; 29,72</t>
+          <t>21,19; 29,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,89; 13,16</t>
+          <t>10,9; 13,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,77; 16,28</t>
+          <t>13,57; 16,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,19; 19,88</t>
+          <t>17,28; 19,96</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,17; 21,64</t>
+          <t>16,28; 21,65</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>15,46; 17,27</t>
+          <t>15,51; 17,22</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>20,1; 22,11</t>
+          <t>20,02; 22,05</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>24,29; 26,38</t>
+          <t>24,19; 26,37</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>19,85; 25,19</t>
+          <t>20,2; 25,03</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares en los que las tareas domésticas las realiza principalmente el/la entrevistado/a junto con su pareja</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>23252</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>28804</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>20559</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>25580</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>26076</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>34485</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>42572</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>25592</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>49328</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>63289</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>63131</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>51172</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>14919; 35306</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>19391; 41502</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>12851; 31139</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>13874; 46939</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>17518; 35993</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>24475; 46148</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>31410; 56364</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16182; 41271</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>36006; 64006</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>49391; 80444</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>49030; 80022</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>33145; 74091</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>208341</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>194540</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>219897</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>122108</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>149361</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>163231</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>148060</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>114006</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>357702</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>357771</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>367957</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>236114</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>181991; 234248</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>171591; 218644</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>195917; 243129</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>99328; 150192</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>127346; 171349</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>143304; 188788</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>127761; 167283</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>72565; 139207</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>323531; 388273</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>325591; 392951</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>339944; 402132</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>180958; 275502</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>189742</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>297489</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>311085</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>236897</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>104338</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>152353</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>219529</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>204035</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>294080</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>449842</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>530613</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>440932</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>169016; 213896</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>271523; 323122</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>286167; 338526</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>214377; 260781</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>85862; 124597</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>131349; 176538</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>195400; 241844</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>151557; 229525</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>264864; 323498</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>415519; 486265</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>496451; 568560</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>378470; 477593</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>107915</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>204556</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>245192</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>214530</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>37708</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>78034</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>126442</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>201669</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>145623</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>282590</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>371635</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>416198</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>88963; 129408</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>182491; 232096</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>220655; 268907</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>97864; 306541</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>27575; 50651</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>60983; 96552</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>106002; 147966</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>171657; 223801</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>122482; 170020</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>254503; 319124</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>340854; 407038</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>250884; 507585</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>51890</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>112967</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>160973</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>177074</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>32439</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>50145</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>65430</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>113932</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>84329</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>163112</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>226402</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>291006</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>38691; 67325</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>95134; 133478</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>140175; 183159</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>156234; 197502</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>23316; 44900</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>37833; 67350</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>50823; 82468</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>100944; 128093</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>68790; 103458</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>140316; 187470</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>198932; 255075</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>263133; 315959</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>70283</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>69285</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>92914</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>100159</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>39909</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>29922</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>38512</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>52279</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>110192</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>99206</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>131426</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>152438</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>55094; 84657</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>54894; 84718</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>76749; 109060</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>87794; 116072</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>30509; 51510</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>20018; 42714</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>28711; 52760</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>22579; 83475</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>93234; 131377</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>81217; 120866</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>110502; 151864</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>75041; 201312</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>33589</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>33107</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>46635</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>55883</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>14818</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>19962</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>16604</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>23816</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>48407</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>53069</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>63239</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>79698</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>24642; 45215</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>23450; 45260</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>36488; 57673</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>45328; 67320</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>8815; 24532</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>11407; 29900</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>8444; 28558</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>17909; 30760</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>36602; 62950</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>39987; 69213</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>49892; 80564</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>67764; 94364</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>881</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1034</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>997</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1162</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1046</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1368</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1671</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>2159</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>685012</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>940747</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1097255</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>932230</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>404648</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>528131</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>657148</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>735328</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1089661</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1468879</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1754403</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1667558</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>635310; 729493</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>886882; 993468</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1044449; 1158096</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>732759; 1022406</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>367940; 443267</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>482746; 572044</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>611538; 706442</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>604305; 803283</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1031181; 1145058</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1397854; 1539790</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1674992; 1826342</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1448600; 1794625</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>